--- a/Manuscript/Sampledata from pilot tests.xlsx
+++ b/Manuscript/Sampledata from pilot tests.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId3"/>
+    <pivotCache cacheId="21" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -78,13 +78,7 @@
     <t>Correct</t>
   </si>
   <si>
-    <t>DIF fix</t>
-  </si>
-  <si>
     <t>Dif letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dif white </t>
   </si>
   <si>
     <t>Dif feedback</t>
@@ -100,6 +94,12 @@
   </si>
   <si>
     <t xml:space="preserve">Count of Conditions </t>
+  </si>
+  <si>
+    <t>Dif fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dif white </t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +177,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Sampledata from 12 '12 and 13.xlsx]Sheet4!PivotTable17</c:name>
+    <c:name>[Sampledata from pilot tests.xlsx]Sheet2!PivotTable11</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -254,21 +254,6 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -281,7 +266,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet4!$B$3</c:f>
+              <c:f>Sheet2!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -302,7 +287,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet4!$A$4:$A$6</c:f>
+              <c:f>Sheet2!$A$4:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -319,25 +304,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$B$4:$B$6</c:f>
+              <c:f>Sheet2!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA76-44CB-B0AA-DD1AC4D2CAF0}"/>
+              <c16:uniqueId val="{00000000-FBDA-4200-93CA-47A7F14C2820}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -351,11 +336,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="529411792"/>
-        <c:axId val="529412448"/>
+        <c:axId val="553995184"/>
+        <c:axId val="554001088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="529411792"/>
+        <c:axId val="553995184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +383,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529412448"/>
+        <c:crossAx val="554001088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -406,7 +391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="529412448"/>
+        <c:axId val="554001088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +442,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529411792"/>
+        <c:crossAx val="553995184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -521,7 +506,3144 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Difference between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> Letters appear and disappear </a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18363888888888888"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$112:$D$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>0.2254696000018015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21036849997469886</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2138017999822992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21121539996239846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21482800005470182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20884050003949994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20333410002059793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20355340000240574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20643640001070196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20686579996250032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20345730002729567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21364160004308985</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20634999999299453</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20241339999400054</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20108829997499811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21019209997000132</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21560809999999719</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19986910000400826</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20811360003398249</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20319500000900348</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20321130001698862</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20320320001297887</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20341570000098841</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20315970003102279</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20172330003700267</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20318790001300613</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20319580001597615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20049769995898714</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20924759999599019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20143019995899181</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20354859996598407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.19996880000698525</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.20510630001101049</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.2101894000079767</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21369230002198947</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.21398170001401695</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23153060005301995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.20354900002701015</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20777340000495315</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.20844360004400642</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2116272000130266</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.21316509996603372</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.20822939998402035</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2029076999759809</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.20357379998301894</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.207233799970993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.20130809996101107</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.19957120000600526</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.20026760001201183</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.20752689999096674</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.20765130000700083</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19991490000393242</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.20270570000809585</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.20512250001797838</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.21523349999893071</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.20601240004202737</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.20182290003901926</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.2105798000119421</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.20967239997094111</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.20050019997802337</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.21224899997400826</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.21292570000503019</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.21014270000193846</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.21108169999206439</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.21035790001099031</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.20070430001908335</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.21238490001996979</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.2054196000100319</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.20183189999102069</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.21139260003099025</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.20906010002295261</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.20197260001498307</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.22439260000830075</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.20307549997230012</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.20345129998170108</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.21029379998799413</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.2035264000297019</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.21256259997609561</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.20228929998118872</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.21160489995959608</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.20300779998069629</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.21492240001599328</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.20428070001000265</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.20315680000899761</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.21136430004800388</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.20631009998001559</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.20943009998899242</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.20346910000100138</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.20896360004599046</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.20978859998299981</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.20531190000500033</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.20081050001300582</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.20336059998899714</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.2024165999609977</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.21467880002501261</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.21012149995701179</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.20286920003201203</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.1989493999859917</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.20743150002098787</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.21531090000601694</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.19973440002598863</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.20831009995899308</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.21273200004299042</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.20305400004099283</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.20272750000003725</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.21524859999800583</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.20021199999598593</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.20690029999298076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C335-4E7B-B6A8-553ADA403BB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557426848"/>
+        <c:axId val="557434720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557426848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Trial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> No.</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557434720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557434720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Time in sec.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557426848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Differences between Fixation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> cross apper and disappear</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1030493604193661"/>
+          <c:y val="0.15782406261127438"/>
+          <c:w val="0.8648912948381452"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$112:$B$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>1.0260210999985979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0121943000122009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0091172000392987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0119715000037033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0080450999667008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0138762000132999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0028402999742028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0029394999728964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.016263999976303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0160279999837059</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0027476000251028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0093002999783067</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0160217999950021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0205433000230073</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0051915000070011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0126591000010023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0071656000220059</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0063201999870159</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0150255999760134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98603519995199918</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0029224000170132</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0028387000200212</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0029576999949938</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0030065999600026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0044272999510042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0028089999680105</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0028343999870231</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0060261000180049</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0134896999799992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0049092000120083</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0192266000090058</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0061240999500001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.017883400025994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0129042000040158</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0092462999749898</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0087446999959866</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0275178999870036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0026129999899922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0148897999900441</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0143675999719903</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0115798999900107</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0097619000009672</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0144781999989618</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98668209998800194</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0027122999890139</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.015514000027963</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0049082000040244</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0068693000359872</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.039189199975965</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0149768000119934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0150391999629846</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0066823000090608</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0204750999689622</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0178045000070597</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0074401000160833</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99988469999493645</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0043424000029972</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0123489000250174</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0131323999960387</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0052278999939972</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0271442999950295</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0101292000030071</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0127835999589934</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0116650999989361</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.0126793999810388</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0052195999890046</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0102163000270821</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.000800299981961</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0047824000359924</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0110386000019389</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0137773999599631</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0039794999750029</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0045819999649979</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0030232000281032</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0027411000336954</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.0126606000121967</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0023806999670057</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0102276999969035</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0207706000074097</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99455579998910082</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0031870999955004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0079145000200072</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0184812999799959</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0030630999829953</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0119416000089956</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0168112000099825</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0135783000150127</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.002621199993996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0135934999560163</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0128407999879983</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0173071000020002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.98860299994800016</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.0029319999739812</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0207650000230046</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0088502999859941</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.013043400015988</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0036000999969872</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.007167899980999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0152716999870108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0075626999609995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0229588999650048</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0145145000419973</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0100581999870428</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.98590669996400493</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0202043000030017</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0076211999979705</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.0062244000150145</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0158788000119898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-275A-4093-A60C-FC51F0293675}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="542809624"/>
+        <c:axId val="542808312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="542809624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Trail No.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542808312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="542808312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.04"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Time in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> sec.</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542809624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.000000000000001E-3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Differences between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> White Screen appears and disappears</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$112:$F$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>4.9906900000059977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0416883000289019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0589566999697979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.041398400033394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0427334999548989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0620867999968979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0615577999851027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0457114999881014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.055968799977606</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0597424000152103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0625627000117959</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0402008999953125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0385466000300028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.055602999987002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0629914999589971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.020152799959007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0325508000100001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0567630999719881</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0225028999849997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0387649000039971</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0488247000030242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0324024999860058</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0391398000070069</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.03511659998901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0376528999769903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0343299999950091</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.054851600027007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0688615000109962</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0451718000120138</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0590187000339881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0171516999830033</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0568308999650071</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0610840999869993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.03789790003799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.065531400031972</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0572350000140318</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9985095000009778</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.060490600007995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.061146499996994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0581063000140034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.0627372000020046</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0350448000250481</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0737353999870152</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0575373999890303</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.0455691000090042</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.0761579999820015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0658247999969603</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.0456007000170189</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0113041999860002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.0574048000270295</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0627021000259447</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0523121000150013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.0655688000259715</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0726307999580058</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0725334999730194</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.0610076999879539</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.045647700026052</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.0634347999580314</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.0554557000280056</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.0410075999679975</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.0514888999749701</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.0623435999730191</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.0577068999990615</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.0494182999830173</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.0626475000169648</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0556158000250662</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.0599125999730177</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.0539075999979559</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.0530165000240004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.0531590000019833</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.0534585000129937</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.0619950999970342</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.0087559999665032</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.059606900031298</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.0657115000066995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.0623426000239107</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0717425000039071</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.0601032999693984</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.0486794000025981</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.0321943000308096</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.0475946000071019</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.0637274999750019</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.0628845000180007</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.0438747999720022</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.0538855999480035</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.0666925999680075</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.0453381999980138</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.0600228999969943</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.0399751000219908</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.05218580004302</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.0655513999519997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.0589953000300056</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.046314699982986</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.05562030000101</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.0497814000119945</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.0337634000460127</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0629485999820076</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.059322799963013</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.0548562000039965</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.0558187999990025</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.054863099999011</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.0509537999749625</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.0617854000300326</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.0555488999810336</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.0578456000069991</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.0609182000040391</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.0503883000350243</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.0600189000249998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D51-4538-B1C9-F8060A4F8726}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="477497064"/>
+        <c:axId val="477496408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="477497064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Trial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>No.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477496408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="477496408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> in sec.</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477497064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Differences</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> between Feedback appearing and disappearing</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$112:$H$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>0.46383979998060099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47174699994499747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4535578000359024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47094889997970313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47045359999179936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45049200003270329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45065470004919916</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45034600002689729</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45664830005259205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4530834999749942</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44998410000700062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45546859997600109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44044229999400386</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.44963460002300337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4753459999919869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46394169999999235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45590870000899031</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47323920001500142</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47415029996798808</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46402119996497504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48037730000299916</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4737113000009856</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.47291100001899622</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.47854059998698517</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.4575600000100053</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.44358560000600278</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.46712560002899295</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.45375709998199909</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.46241970005200983</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.45559299999101199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.45171769999498679</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47485679999201125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44684989994902935</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.45248519995902825</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.45225199998799326</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45124860003102185</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45463779999397502</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.44970320002101971</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.47758050000999219</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43911610002396628</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.45535390003396969</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46675510000204667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43635020003398495</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.44699430000002849</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4655364999779863</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.4560086000129786</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.44938309996996395</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.46010430000103497</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.44729789998405067</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.44015560002299026</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44028430001401375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.45180189999507547</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.46714139997493476</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.44907110003998696</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.4573223000049893</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.44220380002002457</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.45026240003096518</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.45497719995898933</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.46356090000995209</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.4501524000079371</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.45645439997292669</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.45285050000506999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.45867059996794524</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.45988739997801531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.45860650000406622</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.45931569999106614</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.47165269998369297</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.45254049997310375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.44690419995460218</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.45039180002639512</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.4578603000262973</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.45255650003669246</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.46401230001349347</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.48012580000799687</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.46467389998800002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.44922280003100923</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.44977429998100149</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.45584200002500097</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.44600810000000024</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.45050420000899294</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.45269480004199636</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.47258719999800292</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.4606917999919915</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.44742910005101066</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45369390002500154</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.46618290001001128</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.45672830002200726</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.46334610000499765</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.44737330003400189</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.45352650003098915</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.4578805000049897</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.45683660003098225</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.45755079999798909</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.46180089999700158</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.45109819999197498</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.45760979998198081</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.45486349996701847</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.45173620001895642</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.46222709998198752</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBE4-4F35-B30B-4AE98475560E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="661269256"/>
+        <c:axId val="661268272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="661269256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Trial No.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661268272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="661268272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> in sec.</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661269256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1064,20 +4186,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1099,8 +6285,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>49693</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>61292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>588065</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>28160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360292</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>127553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>223629</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>318880</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>77856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andreas Wulff-Abramsson" refreshedDate="44771.411369907408" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="108">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andreas Wulff-Abramsson" refreshedDate="44771.436407870373" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="108">
   <cacheSource type="worksheet">
     <worksheetSource ref="J1:L109" sheet="Sheet1"/>
   </cacheSource>
@@ -1113,10 +6424,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Responses " numFmtId="0">
-      <sharedItems count="2">
-        <s v="Correct"/>
-        <s v="Incorrect"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="RT" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.40147790004266398" maxValue="0.95339670003158905"/>
@@ -1134,549 +6442,549 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="108">
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.60033589997328796"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.419106200046371"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.51848219998646505"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.53478529996937096"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.58344770001713098"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.48518710001371801"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.62244309997185998"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.72127569996519003"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.500684500031638"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.50186349998693902"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.57035569997970004"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.47067299997433998"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.47911919996840802"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.528351399989333"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.43625600001541898"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.56288519996451203"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.44338799995603001"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.46826549997785999"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.59542159998090904"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.48514420003630199"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.55221299995900996"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.70295150001766105"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.60313719999976401"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.55256779998308003"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.54638040001736898"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.41935380001086697"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.418611700006295"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.46880990004865403"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.616111700015608"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.53600160003406905"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.41303450003033498"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.50060639996081502"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.51732069998979502"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.54750960000092097"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.66810469998745203"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.51719039998715699"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.47218760004034199"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.65533699997467898"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.53299959999276303"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.58326440001837898"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.68601749994559202"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.55457179999211803"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.60189960000570797"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.55399939999915604"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.58746449998579897"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.50038339995080605"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.470296600018627"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.65474290004931301"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.48671869997633599"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.49956470000324699"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.566825499990955"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.533947299991268"/>
   </r>
   <r>
-    <x v="1"/>
     <x v="0"/>
+    <s v="Correct"/>
     <n v="0.56406059995060698"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.54835169995203603"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.49979370000073597"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.48089189996244303"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.43479440000373798"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.51712870004121203"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.63181310001527802"/>
   </r>
   <r>
-    <x v="1"/>
     <x v="0"/>
+    <s v="Correct"/>
     <n v="0.53528989996993903"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.51360369997564703"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.70219169999472797"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.482047799974679"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.64876469998853203"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.64952839998295497"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.51810129999648702"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.55082359997322705"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.53106509998906404"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.53495929995551705"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.75076520000584401"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.53085490001831204"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.50405350001528804"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.45033199997851597"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.55357749998802297"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.50325170002179198"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.56767940003191997"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.55518130003474597"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.518765200045891"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.56971910002175696"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.46804310003062699"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.63833669997984499"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.55361699999775704"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.56889319996116605"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.45319739996921199"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.495958400017116"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.53055540000787005"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.71252210001694005"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.95339670003158905"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.54892780003137798"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="1"/>
+    <s v="Incorrect"/>
     <n v="0.56405960000120103"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="2"/>
+    <s v="Correct"/>
     <n v="0.63287829997716405"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.55156059999717399"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.46986899996409098"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.47982810001121801"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.53390809998381805"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.566002499952446"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.58427289995597598"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.50079020002158303"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.54768540000077304"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.56875049998052396"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.51922539999941297"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.46278589998837499"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.51661069999681697"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.40147790004266398"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.51288090000161901"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.73437680001370598"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.49907889997120902"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Correct"/>
     <n v="0.64821269997628395"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1692,10 +7000,6 @@
       </extLst>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -2022,9 +7326,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +7334,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +7342,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +7350,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +7358,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2069,8 +7371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N127" sqref="N127"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z189" sqref="Z189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3960,7 +9262,7 @@
         <v>537.65009469998699</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K54" t="s">
         <v>15</v>
@@ -4205,7 +9507,7 @@
         <v>585.73571480001499</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K61" t="s">
         <v>15</v>
@@ -5291,7 +10593,7 @@
         <v>173.411752700048</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K92" t="s">
         <v>15</v>
@@ -5500,7 +10802,7 @@
       <c r="H98">
         <v>223.202565800049</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K98" t="s">
@@ -5535,7 +10837,7 @@
       <c r="H99">
         <v>229.90491750004</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K99" t="s">
@@ -5898,19 +11200,19 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
         <v>16</v>
       </c>
-      <c r="D111" t="s">
+      <c r="F111" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" t="s">
         <v>17</v>
       </c>
-      <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111" t="s">
-        <v>19</v>
-      </c>
       <c r="K111" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L111" t="s">
         <v>10</v>
@@ -7080,773 +12382,773 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177">
-        <f>B67-A67</f>
+        <f t="shared" ref="B177:B219" si="4">B67-A67</f>
         <v>1.0052195999890046</v>
       </c>
       <c r="D177">
-        <f t="shared" ref="D177:D219" si="4">D67-C67</f>
+        <f t="shared" ref="D177:D219" si="5">D67-C67</f>
         <v>0.20070430001908335</v>
       </c>
       <c r="F177">
-        <f t="shared" ref="F177:F219" si="5">F67-E67</f>
+        <f t="shared" ref="F177:F219" si="6">F67-E67</f>
         <v>5.0556158000250662</v>
       </c>
       <c r="H177">
-        <f t="shared" ref="H177:H220" si="6">H67-G67</f>
+        <f t="shared" ref="H177:H219" si="7">H67-G67</f>
         <v>0.45645439997292669</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178">
-        <f>B68-A68</f>
+        <f t="shared" si="4"/>
         <v>1.0102163000270821</v>
       </c>
       <c r="D178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21238490001996979</v>
       </c>
       <c r="F178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0599125999730177</v>
       </c>
       <c r="H178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45285050000506999</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179">
-        <f>B69-A69</f>
+        <f t="shared" si="4"/>
         <v>1.000800299981961</v>
       </c>
       <c r="D179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2054196000100319</v>
       </c>
       <c r="F179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0539075999979559</v>
       </c>
       <c r="H179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45867059996794524</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180">
-        <f>B70-A70</f>
+        <f t="shared" si="4"/>
         <v>1.0047824000359924</v>
       </c>
       <c r="D180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20183189999102069</v>
       </c>
       <c r="F180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0530165000240004</v>
       </c>
       <c r="H180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45988739997801531</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181">
-        <f>B71-A71</f>
+        <f t="shared" si="4"/>
         <v>1.0110386000019389</v>
       </c>
       <c r="D181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21139260003099025</v>
       </c>
       <c r="F181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0531590000019833</v>
       </c>
       <c r="H181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45860650000406622</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182">
-        <f>B72-A72</f>
+        <f t="shared" si="4"/>
         <v>1.0137773999599631</v>
       </c>
       <c r="D182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20906010002295261</v>
       </c>
       <c r="F182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0534585000129937</v>
       </c>
       <c r="H182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45931569999106614</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183">
-        <f>B73-A73</f>
+        <f t="shared" si="4"/>
         <v>1.0039794999750029</v>
       </c>
       <c r="D183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20197260001498307</v>
       </c>
       <c r="F183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0619950999970342</v>
       </c>
       <c r="H183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184">
-        <f>B74-A74</f>
+        <f t="shared" si="4"/>
         <v>1.0045819999649979</v>
       </c>
       <c r="D184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22439260000830075</v>
       </c>
       <c r="F184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0087559999665032</v>
       </c>
       <c r="H184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.47165269998369297</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185">
-        <f>B75-A75</f>
+        <f t="shared" si="4"/>
         <v>1.0030232000281032</v>
       </c>
       <c r="D185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20307549997230012</v>
       </c>
       <c r="F185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.059606900031298</v>
       </c>
       <c r="H185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45254049997310375</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186">
-        <f>B76-A76</f>
+        <f t="shared" si="4"/>
         <v>1.0027411000336954</v>
       </c>
       <c r="D186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20345129998170108</v>
       </c>
       <c r="F186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0657115000066995</v>
       </c>
       <c r="H186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44690419995460218</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187">
-        <f>B77-A77</f>
+        <f t="shared" si="4"/>
         <v>1.0126606000121967</v>
       </c>
       <c r="D187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21029379998799413</v>
       </c>
       <c r="F187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0623426000239107</v>
       </c>
       <c r="H187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45039180002639512</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188">
-        <f>B78-A78</f>
+        <f t="shared" si="4"/>
         <v>1.0023806999670057</v>
       </c>
       <c r="D188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2035264000297019</v>
       </c>
       <c r="F188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0717425000039071</v>
       </c>
       <c r="H188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4578603000262973</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189">
-        <f>B79-A79</f>
+        <f t="shared" si="4"/>
         <v>1.0102276999969035</v>
       </c>
       <c r="D189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21256259997609561</v>
       </c>
       <c r="F189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0601032999693984</v>
       </c>
       <c r="H189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45255650003669246</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190">
-        <f>B80-A80</f>
+        <f t="shared" si="4"/>
         <v>1.0207706000074097</v>
       </c>
       <c r="D190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20228929998118872</v>
       </c>
       <c r="F190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0486794000025981</v>
       </c>
       <c r="H190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.46401230001349347</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191">
-        <f>B81-A81</f>
+        <f t="shared" si="4"/>
         <v>0.99455579998910082</v>
       </c>
       <c r="D191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21160489995959608</v>
       </c>
       <c r="F191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0321943000308096</v>
       </c>
       <c r="H191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48012580000799687</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192">
-        <f>B82-A82</f>
+        <f t="shared" si="4"/>
         <v>1.0031870999955004</v>
       </c>
       <c r="D192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20300779998069629</v>
       </c>
       <c r="F192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0475946000071019</v>
       </c>
       <c r="H192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.46467389998800002</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193">
-        <f>B83-A83</f>
+        <f t="shared" si="4"/>
         <v>1.0079145000200072</v>
       </c>
       <c r="D193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21492240001599328</v>
       </c>
       <c r="F193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0637274999750019</v>
       </c>
       <c r="H193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44922280003100923</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194">
-        <f>B84-A84</f>
+        <f t="shared" si="4"/>
         <v>1.0184812999799959</v>
       </c>
       <c r="D194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20428070001000265</v>
       </c>
       <c r="F194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0628845000180007</v>
       </c>
       <c r="H194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44977429998100149</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195">
-        <f>B85-A85</f>
+        <f t="shared" si="4"/>
         <v>1.0030630999829953</v>
       </c>
       <c r="D195">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20315680000899761</v>
       </c>
       <c r="F195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0438747999720022</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196">
-        <f>B86-A86</f>
+        <f t="shared" si="4"/>
         <v>1.0119416000089956</v>
       </c>
       <c r="D196">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21136430004800388</v>
       </c>
       <c r="F196">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0538855999480035</v>
       </c>
       <c r="H196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45584200002500097</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197">
-        <f>B87-A87</f>
+        <f t="shared" si="4"/>
         <v>1.0168112000099825</v>
       </c>
       <c r="D197">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20631009998001559</v>
       </c>
       <c r="F197">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0666925999680075</v>
       </c>
       <c r="H197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44600810000000024</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198">
-        <f>B88-A88</f>
+        <f t="shared" si="4"/>
         <v>1.0135783000150127</v>
       </c>
       <c r="D198">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20943009998899242</v>
       </c>
       <c r="F198">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0453381999980138</v>
       </c>
       <c r="H198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45050420000899294</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199">
-        <f>B89-A89</f>
+        <f t="shared" si="4"/>
         <v>1.002621199993996</v>
       </c>
       <c r="D199">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20346910000100138</v>
       </c>
       <c r="F199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0600228999969943</v>
       </c>
       <c r="H199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45269480004199636</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200">
-        <f>B90-A90</f>
+        <f t="shared" si="4"/>
         <v>1.0135934999560163</v>
       </c>
       <c r="D200">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20896360004599046</v>
       </c>
       <c r="F200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0399751000219908</v>
       </c>
       <c r="H200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.47258719999800292</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201">
-        <f>B91-A91</f>
+        <f t="shared" si="4"/>
         <v>1.0128407999879983</v>
       </c>
       <c r="D201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20978859998299981</v>
       </c>
       <c r="F201">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.05218580004302</v>
       </c>
       <c r="H201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4606917999919915</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202">
-        <f>B92-A92</f>
+        <f t="shared" si="4"/>
         <v>1.0173071000020002</v>
       </c>
       <c r="D202">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20531190000500033</v>
       </c>
       <c r="F202">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0655513999519997</v>
       </c>
       <c r="H202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44742910005101066</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203">
-        <f>B93-A93</f>
+        <f t="shared" si="4"/>
         <v>0.98860299994800016</v>
       </c>
       <c r="D203">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20081050001300582</v>
       </c>
       <c r="F203">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0589953000300056</v>
       </c>
       <c r="H203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45369390002500154</v>
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204">
-        <f>B94-A94</f>
+        <f t="shared" si="4"/>
         <v>1.0029319999739812</v>
       </c>
       <c r="D204">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20336059998899714</v>
       </c>
       <c r="F204">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.046314699982986</v>
       </c>
       <c r="H204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.46618290001001128</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205">
-        <f>B95-A95</f>
+        <f t="shared" si="4"/>
         <v>1.0207650000230046</v>
       </c>
       <c r="D205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2024165999609977</v>
       </c>
       <c r="F205">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.05562030000101</v>
       </c>
       <c r="H205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45672830002200726</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206">
-        <f>B96-A96</f>
+        <f t="shared" si="4"/>
         <v>1.0088502999859941</v>
       </c>
       <c r="D206">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21467880002501261</v>
       </c>
       <c r="F206">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0497814000119945</v>
       </c>
       <c r="H206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.46334610000499765</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207">
-        <f>B97-A97</f>
+        <f t="shared" si="4"/>
         <v>1.013043400015988</v>
       </c>
       <c r="D207">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21012149995701179</v>
       </c>
       <c r="F207">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0337634000460127</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208">
-        <f>B98-A98</f>
+        <f t="shared" si="4"/>
         <v>1.0036000999969872</v>
       </c>
       <c r="D208">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20286920003201203</v>
       </c>
       <c r="F208">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0629485999820076</v>
       </c>
       <c r="H208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.44737330003400189</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B209">
-        <f>B99-A99</f>
+        <f t="shared" si="4"/>
         <v>1.007167899980999</v>
       </c>
       <c r="D209">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1989493999859917</v>
       </c>
       <c r="F209">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.059322799963013</v>
       </c>
       <c r="H209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45352650003098915</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B210">
-        <f>B100-A100</f>
+        <f t="shared" si="4"/>
         <v>1.0152716999870108</v>
       </c>
       <c r="D210">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20743150002098787</v>
       </c>
       <c r="F210">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0548562000039965</v>
       </c>
       <c r="H210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4578805000049897</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B211">
-        <f>B101-A101</f>
+        <f t="shared" si="4"/>
         <v>1.0075626999609995</v>
       </c>
       <c r="D211">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21531090000601694</v>
       </c>
       <c r="F211">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0558187999990025</v>
       </c>
       <c r="H211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45683660003098225</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B212">
-        <f>B102-A102</f>
+        <f t="shared" si="4"/>
         <v>1.0229588999650048</v>
       </c>
       <c r="D212">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19973440002598863</v>
       </c>
       <c r="F212">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.054863099999011</v>
       </c>
       <c r="H212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45755079999798909</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213">
-        <f>B103-A103</f>
+        <f t="shared" si="4"/>
         <v>1.0145145000419973</v>
       </c>
       <c r="D213">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20831009995899308</v>
       </c>
       <c r="F213">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0509537999749625</v>
       </c>
       <c r="H213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.46180089999700158</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B214">
-        <f>B104-A104</f>
+        <f t="shared" si="4"/>
         <v>1.0100581999870428</v>
       </c>
       <c r="D214">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21273200004299042</v>
       </c>
       <c r="F214">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0617854000300326</v>
       </c>
       <c r="H214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45109819999197498</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B215">
-        <f>B105-A105</f>
+        <f t="shared" si="4"/>
         <v>0.98590669996400493</v>
       </c>
       <c r="D215">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20305400004099283</v>
       </c>
       <c r="F215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0555488999810336</v>
       </c>
       <c r="H215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45760979998198081</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B216">
-        <f>B106-A106</f>
+        <f t="shared" si="4"/>
         <v>1.0202043000030017</v>
       </c>
       <c r="D216">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20272750000003725</v>
       </c>
       <c r="F216">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0578456000069991</v>
       </c>
       <c r="H216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45486349996701847</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B217">
-        <f>B107-A107</f>
+        <f t="shared" si="4"/>
         <v>1.0076211999979705</v>
       </c>
       <c r="D217">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21524859999800583</v>
       </c>
       <c r="F217">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0609182000040391</v>
       </c>
       <c r="H217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.45173620001895642</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B218">
-        <f>B108-A108</f>
+        <f t="shared" si="4"/>
         <v>1.0062244000150145</v>
       </c>
       <c r="D218">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20021199999598593</v>
       </c>
       <c r="F218">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0503883000350243</v>
       </c>
       <c r="H218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.46222709998198752</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B219">
-        <f>B109-A109</f>
+        <f t="shared" si="4"/>
         <v>1.0158788000119898</v>
       </c>
       <c r="D219">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20690029999298076</v>
       </c>
       <c r="F219">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0600189000249998</v>
       </c>
       <c r="H219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B221">
         <f>AVERAGE(B148:B219)</f>
@@ -7867,7 +13169,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B222">
         <f>_xlfn.STDEV.P(B148:B219)</f>
@@ -7888,5 +13190,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>